--- a/mobi_client/mobi_client/mobi_config/no_limit_state_excel/角色档案相关配置表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/no_limit_state_excel/角色档案相关配置表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8A5E0C-E547-4A80-BD03-4BE0C7A6D997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A9C3B1-B93C-4A2B-85A7-863A9174FED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26070" yWindow="0" windowWidth="13500" windowHeight="20835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28410" yWindow="390" windowWidth="13500" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterRecord" sheetId="1" r:id="rId1"/>

--- a/mobi_client/mobi_client/mobi_config/no_limit_state_excel/角色档案相关配置表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/no_limit_state_excel/角色档案相关配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A9C3B1-B93C-4A2B-85A7-863A9174FED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE47012-E34F-4D2A-843C-947CE2704C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28410" yWindow="390" windowWidth="13500" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterRecord" sheetId="1" r:id="rId1"/>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="630">
   <si>
     <t>ID</t>
   </si>
@@ -384,12 +384,10 @@
     <t>？？？</t>
   </si>
   <si>
-    <t>003号站点初级研究员。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作为研究员的土山奥性格理智冷静，独立阴郁，不会轻易将自己的情绪外泄。一旦意识到自己的某种情绪会过分外露时，会出手克制。
-她会让周围的同事们有一种不敢靠近的感觉，也许是因为之前跟异质物接触的原因，又或者是她的身上还藏着什么不可告人的秘密……
-</t>
+    <t>联合议会高级探员，在暗杀财前事件中与异质物融合，加入STS后成为了研究员和行动队队员，拥有特殊防御能力，擅长操纵壁垒型异质物。</t>
+  </si>
+  <si>
+    <t>联合议会高级探员，以不操作异质物破获异质物事件闻名。财前事件后被联合议会抹去了职位和个人信息，以异质物研究员身份留在了STS作战队。沉默寡言，习惯压抑情感，过于激动时会陷入奇怪的状态……虽然看起来很不好相处，却被同伴评价为外冷内热的害羞鬼。土山奥想要追查冰酒背叛的真相以及财前身后的组织，等待她的却是迷雾重重……</t>
   </si>
   <si>
     <t>父亲是建筑设计师土山正雄，在去年西亚援建大运河的项目时牺牲了。</t>
@@ -1763,7 +1761,7 @@
   <si>
     <t>&lt;color=#e2bd26&gt;记录3：&lt;/color&gt;
 &lt;摘自事故报告0630&gt;
-一名研究院和一名患者失踪了，我们取得了他们的对话录音，深思熟虑下，决定进入1-568的收容房间。
+一名研究员和一名患者失踪了，我们取得了他们的对话录音，深思熟虑下，决定进入1-568的收容房间。
 这样危险的行为，一切都必须精确计算。我们确定了时间，在8月7日的晚上5：30-8：30，这个时间段调查组的小队成员会携带1-568出外勤，进行调查工作。
 一切准备就绪，三人一组的研究员进入了1-568的收容房间，我们用精密的仪器仔仔细细将房间扫描了一遍，但很遗憾，一无所获。就在我们要放弃的时候，有研究员在房间内进行了记录拍摄工作，这让事情有了转机。
 相机里，我们看到了肉眼看不到的东西，是一个个相框，排满了收容房间的整面墙。
@@ -1834,6 +1832,9 @@
     <t>雾灯</t>
   </si>
   <si>
+    <t>hero_125</t>
+  </si>
+  <si>
     <t>2-481</t>
   </si>
   <si>
@@ -1874,6 +1875,9 @@
   </si>
   <si>
     <t>极速花火</t>
+  </si>
+  <si>
+    <t>hero_127</t>
   </si>
   <si>
     <t>2-362</t>
@@ -2040,6 +2044,9 @@
     <t>迷醉金钞</t>
   </si>
   <si>
+    <t>hero_107</t>
+  </si>
+  <si>
     <t>2-224</t>
   </si>
   <si>
@@ -2114,6 +2121,9 @@
   </si>
   <si>
     <t>涂鸦爆弹</t>
+  </si>
+  <si>
+    <t>hero_117</t>
   </si>
   <si>
     <t>2-965</t>
@@ -2170,6 +2180,30 @@
     <t>粉红救援</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hero_1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20</t>
+    </r>
+  </si>
+  <si>
     <t>2-265</t>
   </si>
   <si>
@@ -2213,6 +2247,9 @@
   </si>
   <si>
     <t>致命拥抱</t>
+  </si>
+  <si>
+    <t>hero_123</t>
   </si>
   <si>
     <t>警告：为避免再次于2-481的收容场所内发生伤亡事件，目前2-481的收容房间已被封锁，只有工作码为绿码的相关人员可以进入该收容房间，进行特定且必要的研究工作。
@@ -3310,7 +3347,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3388,14 +3425,6 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -3463,10 +3492,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3564,14 +3593,14 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3923,8 +3952,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:XFC20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="96" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4135,7 +4164,7 @@
       <c r="I4" s="19">
         <v>2</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="31" t="s">
         <v>35</v>
       </c>
       <c r="K4" s="19">
@@ -4144,7 +4173,7 @@
       <c r="L4" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="33">
+      <c r="M4" s="32">
         <v>1</v>
       </c>
       <c r="N4" s="8" t="s">
@@ -4153,19 +4182,19 @@
       <c r="O4" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="31" t="s">
+      <c r="P4" s="33" t="s">
         <v>39</v>
       </c>
       <c r="Q4" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="31" t="s">
+      <c r="R4" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="T4" s="31" t="s">
+      <c r="T4" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="31" t="s">
+      <c r="V4" s="33" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4197,7 +4226,7 @@
       <c r="I5" s="19">
         <v>2</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="31" t="s">
         <v>45</v>
       </c>
       <c r="K5" s="19">
@@ -4206,7 +4235,7 @@
       <c r="L5" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="33">
+      <c r="M5" s="32">
         <v>1</v>
       </c>
       <c r="N5" s="8" t="s">
@@ -4215,20 +4244,20 @@
       <c r="O5" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="P5" s="31" t="s">
+      <c r="P5" s="33" t="s">
         <v>39</v>
       </c>
       <c r="Q5" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="R5" s="31" t="s">
+      <c r="R5" s="33" t="s">
         <v>39</v>
       </c>
       <c r="S5" s="22"/>
-      <c r="T5" s="31" t="s">
+      <c r="T5" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="V5" s="31" t="s">
+      <c r="V5" s="33" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4278,22 +4307,22 @@
       <c r="O6" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="P6" s="31" t="s">
+      <c r="P6" s="33" t="s">
         <v>39</v>
       </c>
       <c r="Q6" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="R6" s="31" t="s">
+      <c r="R6" s="33" t="s">
         <v>39</v>
       </c>
       <c r="S6" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="T6" s="31" t="s">
+      <c r="T6" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="V6" s="31" t="s">
+      <c r="V6" s="33" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4340,19 +4369,19 @@
       <c r="O7" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="P7" s="31" t="s">
+      <c r="P7" s="33" t="s">
         <v>39</v>
       </c>
       <c r="Q7" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="R7" s="31" t="s">
+      <c r="R7" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="T7" s="31" t="s">
+      <c r="T7" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="V7" s="31" t="s">
+      <c r="V7" s="33" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4402,20 +4431,20 @@
       <c r="O8" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="P8" s="31" t="s">
+      <c r="P8" s="33" t="s">
         <v>39</v>
       </c>
       <c r="Q8" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="R8" s="31" t="s">
+      <c r="R8" s="33" t="s">
         <v>39</v>
       </c>
       <c r="S8" s="8"/>
-      <c r="T8" s="31" t="s">
+      <c r="T8" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="V8" s="31" t="s">
+      <c r="V8" s="33" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4472,170 +4501,170 @@
       <c r="O9" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="P9" s="31" t="s">
+      <c r="P9" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="R9" s="31" t="s">
+      <c r="R9" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="T9" s="31" t="s">
+      <c r="T9" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="V9" s="31" t="s">
+      <c r="V9" s="33" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="96" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="P10" s="31" t="s">
+      <c r="P10" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="R10" s="31" t="s">
+      <c r="R10" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="T10" s="31" t="s">
+      <c r="T10" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="V10" s="31" t="s">
+      <c r="V10" s="33" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="96" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="P11" s="31" t="s">
+      <c r="P11" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="R11" s="31" t="s">
+      <c r="R11" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="T11" s="31" t="s">
+      <c r="T11" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="V11" s="31" t="s">
+      <c r="V11" s="33" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="96" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="P12" s="31" t="s">
+      <c r="P12" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="R12" s="31" t="s">
+      <c r="R12" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="T12" s="31" t="s">
+      <c r="T12" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="V12" s="31" t="s">
+      <c r="V12" s="33" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="96" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="P13" s="31" t="s">
+      <c r="P13" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="R13" s="31" t="s">
+      <c r="R13" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="T13" s="31" t="s">
+      <c r="T13" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="V13" s="31" t="s">
+      <c r="V13" s="33" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="96" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="P14" s="31" t="s">
+      <c r="P14" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="R14" s="31" t="s">
+      <c r="R14" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="T14" s="31" t="s">
+      <c r="T14" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="V14" s="31" t="s">
+      <c r="V14" s="33" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="96" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="P15" s="31" t="s">
+      <c r="P15" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="R15" s="31" t="s">
+      <c r="R15" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="T15" s="31" t="s">
+      <c r="T15" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="V15" s="31" t="s">
+      <c r="V15" s="33" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="96" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="P16" s="31" t="s">
+      <c r="P16" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="R16" s="31" t="s">
+      <c r="R16" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="T16" s="31" t="s">
+      <c r="T16" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="V16" s="31" t="s">
+      <c r="V16" s="33" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" spans="16:22" ht="96" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="P17" s="31" t="s">
+      <c r="P17" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="R17" s="31" t="s">
+      <c r="R17" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="T17" s="31" t="s">
+      <c r="T17" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="V17" s="31" t="s">
+      <c r="V17" s="33" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="16:22" ht="96" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="P18" s="31" t="s">
+      <c r="P18" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="R18" s="31" t="s">
+      <c r="R18" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="T18" s="31" t="s">
+      <c r="T18" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="V18" s="31" t="s">
+      <c r="V18" s="33" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="16:22" ht="96" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="P19" s="31" t="s">
+      <c r="P19" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="R19" s="31" t="s">
+      <c r="R19" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="T19" s="31" t="s">
+      <c r="T19" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="V19" s="31" t="s">
+      <c r="V19" s="33" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="20" spans="16:22" ht="96" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="P20" s="31" t="s">
+      <c r="P20" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="R20" s="31" t="s">
+      <c r="R20" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="T20" s="31" t="s">
+      <c r="T20" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="V20" s="31" t="s">
+      <c r="V20" s="33" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4652,11 +4681,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:W44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6919,7 +6948,7 @@
  “那里面，究竟是什么样的呢？报告显示其实是致幻作用罢了，都是假的。”
  “你去试试就知道了。带上我一起吧。”|&lt;color=#e2bd26&gt;记录3：&lt;/color&gt;
 &lt;摘自事故报告0630&gt;
-一名研究院和一名患者失踪了，我们取得了他们的对话录音，深思熟虑下，决定进入1-568的收容房间。
+一名研究员和一名患者失踪了，我们取得了他们的对话录音，深思熟虑下，决定进入1-568的收容房间。
 这样危险的行为，一切都必须精确计算。我们确定了时间，在8月7日的晚上5：30-8：30，这个时间段调查组的小队成员会携带1-568出外勤，进行调查工作。
 一切准备就绪，三人一组的研究员进入了1-568的收容房间，我们用精密的仪器仔仔细细将房间扫描了一遍，但很遗憾，一无所获。就在我们要放弃的时候，有研究员在房间内进行了记录拍摄工作，这让事情有了转机。
 相机里，我们看到了肉眼看不到的东西，是一个个相框，排满了收容房间的整面墙。
@@ -7023,17 +7052,26 @@
       <c r="E35" s="1" t="s">
         <v>357</v>
       </c>
+      <c r="F35" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>358</v>
+      </c>
       <c r="I35" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K35" s="24">
         <v>50215</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N35" s="5" t="s">
         <v>108</v>
@@ -7069,10 +7107,10 @@
 “我会保护你……直到你死去。”</v>
       </c>
       <c r="R35" s="8" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S35" s="8" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -7080,22 +7118,31 @@
         <v>1033</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K36" s="24">
         <v>50275</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="N36" s="5" t="s">
         <v>108</v>
@@ -7149,13 +7196,13 @@
 （爆炸声）</v>
       </c>
       <c r="R36" s="8" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="S36" s="8" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="T36" s="8" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -7163,22 +7210,22 @@
         <v>1034</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="K37" s="24">
         <v>50183</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N37" s="5" t="s">
         <v>108</v>
@@ -7221,10 +7268,10 @@
 （咀嚼声）</v>
       </c>
       <c r="R37" s="8" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="S37" s="8" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -7232,22 +7279,22 @@
         <v>1035</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K38" s="24">
         <v>50285</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="M38" s="8" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="N38" s="5" t="s">
         <v>108</v>
@@ -7288,10 +7335,10 @@
 2-613：去死啊。</v>
       </c>
       <c r="R38" s="8" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="S38" s="8" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -7299,22 +7346,31 @@
         <v>1036</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>385</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K39" s="24">
         <v>49476</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="N39" s="5" t="s">
         <v>108</v>
@@ -7342,10 +7398,10 @@
 档案更新情况请等待后续通知。</v>
       </c>
       <c r="R39" s="8" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="S39" s="8" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -7353,22 +7409,22 @@
         <v>1037</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="K40" s="24">
         <v>49476</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="N40" s="5" t="s">
         <v>108</v>
@@ -7398,10 +7454,10 @@
 “啊！！！”</v>
       </c>
       <c r="R40" s="8" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="S40" s="8" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="41" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -7409,22 +7465,31 @@
         <v>1038</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>394</v>
+        <v>397</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>398</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="K41" s="24">
         <v>49374</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="N41" s="5" t="s">
         <v>108</v>
@@ -7471,10 +7536,10 @@
 “难道不值得更高的价钱吗?”</v>
       </c>
       <c r="R41" s="8" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="S41" s="8" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -7482,22 +7547,31 @@
         <v>1039</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>400</v>
+        <v>404</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>405</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="K42" s="24">
         <v>49378</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="N42" s="5" t="s">
         <v>108</v>
@@ -7536,10 +7610,10 @@
 目前遗体已经被昭离公馆回收，同时，2-265的外出救援工作也将暂缓，等待后续通知。</v>
       </c>
       <c r="R42" s="8" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="S42" s="8" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -7547,22 +7621,31 @@
         <v>1040</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>406</v>
+        <v>411</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>412</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K43" s="24">
         <v>49474</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="N43" s="5" t="s">
         <v>108</v>
@@ -7607,10 +7690,10 @@
 481像是从██的背上生长出来一样，缠绕住了他的整个上半身，从背后紧紧【拥抱】住了他，就这样死死的……”</v>
       </c>
       <c r="R43" s="8" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="S43" s="8" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
     </row>
     <row r="44" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -7618,34 +7701,34 @@
         <v>1041</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="K44" s="24">
         <v>47607</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="N44" s="5" t="s">
         <v>108</v>
       </c>
       <c r="R44" s="8" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="S44" s="8" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="T44" s="8" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -7656,15 +7739,15 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>辅助表!$B$4:$B$8</xm:f>
           </x14:formula1>
-          <xm:sqref>J17 J4:J16</xm:sqref>
+          <xm:sqref>J4:J17</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+        <x14:dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
-            <xm:f>辅助表!D19:D23</xm:f>
+            <xm:f>辅助表!D18:D22</xm:f>
           </x14:formula1>
           <xm:sqref>J18</xm:sqref>
         </x14:dataValidation>
@@ -7679,8 +7762,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7700,13 +7783,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -7719,13 +7802,13 @@
         <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -7754,16 +7837,16 @@
         <v>100001</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="C4" s="12">
         <v>1</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -7771,16 +7854,16 @@
         <v>100002</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="C5" s="12">
         <v>1</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -7788,16 +7871,16 @@
         <v>100003</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="C6" s="12">
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -7805,16 +7888,16 @@
         <v>100004</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C7" s="12">
         <v>1</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -7822,16 +7905,16 @@
         <v>100005</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="C8" s="12">
         <v>1</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -7839,16 +7922,16 @@
         <v>100006</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="C9" s="12">
         <v>1</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -7856,16 +7939,16 @@
         <v>100007</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="C10" s="12">
         <v>1</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -7873,16 +7956,16 @@
         <v>100008</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="C11" s="12">
         <v>1</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -7890,16 +7973,16 @@
         <v>100009</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="C12" s="12">
         <v>1</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -7907,16 +7990,16 @@
         <v>100010</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C13" s="12">
         <v>1</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -7924,19 +8007,19 @@
         <v>100011</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="C14" s="12">
         <v>1</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -7944,19 +8027,19 @@
         <v>100012</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="C15" s="12">
         <v>1</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -7964,19 +8047,19 @@
         <v>100013</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="C16" s="12">
         <v>1</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -7984,16 +8067,16 @@
         <v>100014</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="C17" s="12">
         <v>1</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -8001,16 +8084,16 @@
         <v>100015</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="C18" s="12">
         <v>1</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -8018,16 +8101,16 @@
         <v>100016</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="C19" s="12">
         <v>1</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -8035,19 +8118,19 @@
         <v>100017</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="C20" s="16">
         <v>2</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -8055,16 +8138,16 @@
         <v>100018</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="C21" s="16">
         <v>2</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -8072,16 +8155,16 @@
         <v>100019</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="C22" s="16">
         <v>2</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -8089,16 +8172,16 @@
         <v>100020</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="C23" s="16">
         <v>2</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -8106,16 +8189,16 @@
         <v>100021</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="C24" s="16">
         <v>2</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -8123,16 +8206,16 @@
         <v>100022</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="C25" s="16">
         <v>2</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -8140,16 +8223,16 @@
         <v>100023</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="C26" s="16">
         <v>2</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -8157,19 +8240,19 @@
         <v>100035</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="C27" s="16">
         <v>2</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -8177,19 +8260,19 @@
         <v>100036</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="C28" s="16">
         <v>2</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -8197,19 +8280,19 @@
         <v>100037</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="C29" s="16">
         <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -8217,19 +8300,19 @@
         <v>100038</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="C30" s="16">
         <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -8237,19 +8320,19 @@
         <v>100039</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="C31" s="16">
         <v>2</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -8257,19 +8340,19 @@
         <v>100040</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="C32" s="16">
         <v>2</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -8277,19 +8360,19 @@
         <v>100041</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="C33" s="16">
         <v>2</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="174" customHeight="1" x14ac:dyDescent="0.15">
@@ -8297,19 +8380,19 @@
         <v>100042</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="C34" s="16">
         <v>2</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -8317,19 +8400,19 @@
         <v>100043</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="C35" s="16">
         <v>2</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -8337,19 +8420,19 @@
         <v>300001</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="C36" s="16">
         <v>2</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -8357,19 +8440,19 @@
         <v>300002</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="C37" s="16">
         <v>2</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -8377,19 +8460,19 @@
         <v>300003</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="C38" s="16">
         <v>2</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -8397,19 +8480,19 @@
         <v>300004</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="C39" s="16">
         <v>2</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -8417,19 +8500,19 @@
         <v>300005</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="C40" s="16">
         <v>2</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -8437,19 +8520,19 @@
         <v>300006</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="C41" s="16">
         <v>2</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -8457,19 +8540,19 @@
         <v>300007</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="C42" s="16">
         <v>2</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -8477,19 +8560,19 @@
         <v>300008</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="C43" s="16">
         <v>2</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -8497,19 +8580,19 @@
         <v>300009</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="C44" s="16">
         <v>2</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -8517,19 +8600,19 @@
         <v>300010</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="C45" s="16">
         <v>2</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -8537,19 +8620,19 @@
         <v>300011</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="C46" s="16">
         <v>2</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -8557,19 +8640,19 @@
         <v>300012</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="C47" s="17">
         <v>3</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -8577,19 +8660,19 @@
         <v>300013</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="C48" s="17">
         <v>3</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -8597,19 +8680,19 @@
         <v>300014</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="C49" s="17">
         <v>3</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -8617,19 +8700,19 @@
         <v>300015</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="C50" s="17">
         <v>3</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -8637,19 +8720,19 @@
         <v>300016</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="C51" s="17">
         <v>3</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -8657,19 +8740,19 @@
         <v>300017</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="C52" s="17">
         <v>3</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -8677,19 +8760,19 @@
         <v>300018</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="C53" s="17">
         <v>3</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -8697,19 +8780,19 @@
         <v>300019</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="C54" s="17">
         <v>3</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -8717,19 +8800,19 @@
         <v>300020</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="C55" s="17">
         <v>3</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -8737,19 +8820,19 @@
         <v>300021</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="C56" s="17">
         <v>3</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -8757,19 +8840,19 @@
         <v>300022</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="C57" s="17">
         <v>3</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -8777,19 +8860,19 @@
         <v>300023</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="C58" s="17">
         <v>3</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -8797,17 +8880,17 @@
         <v>300024</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="C59" s="17">
         <v>3</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="E59" s="15"/>
       <c r="K59" s="1" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -8815,17 +8898,17 @@
         <v>300025</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="C60" s="17">
         <v>3</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="E60" s="15"/>
       <c r="K60" s="1" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -8833,17 +8916,17 @@
         <v>300026</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="C61" s="17">
         <v>3</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="E61" s="15"/>
       <c r="K61" s="1" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -8851,19 +8934,19 @@
         <v>300027</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="C62" s="17">
         <v>3</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -8871,19 +8954,19 @@
         <v>300028</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="C63" s="17">
         <v>3</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -8891,19 +8974,19 @@
         <v>300029</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="C64" s="17">
         <v>3</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -8911,19 +8994,19 @@
         <v>300030</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="C65" s="17">
         <v>3</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -8931,19 +9014,19 @@
         <v>300031</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="C66" s="17">
         <v>3</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -8951,19 +9034,19 @@
         <v>300032</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="C67" s="17">
         <v>3</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -8971,19 +9054,19 @@
         <v>300033</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="C68" s="17">
         <v>3</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -8991,19 +9074,19 @@
         <v>300034</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="C69" s="17">
         <v>3</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -9011,19 +9094,19 @@
         <v>300035</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="C70" s="17">
         <v>3</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -9031,19 +9114,19 @@
         <v>300036</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="C71" s="17">
         <v>3</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -9051,19 +9134,19 @@
         <v>300037</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="C72" s="17">
         <v>3</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -9071,19 +9154,19 @@
         <v>300038</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="C73" s="17">
         <v>3</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -9091,19 +9174,19 @@
         <v>300039</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="C74" s="17">
         <v>3</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -9111,19 +9194,19 @@
         <v>100044</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C75" s="17">
         <v>3</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>
@@ -9162,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -9170,7 +9253,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -9186,7 +9269,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -9194,7 +9277,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -9202,7 +9285,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
   </sheetData>
